--- a/Excel Files/Npi-specialty.xlsx
+++ b/Excel Files/Npi-specialty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="184">
   <si>
     <t>NPI</t>
   </si>
@@ -28,424 +28,526 @@
     <t>SPECIALTIES</t>
   </si>
   <si>
-    <t>SAMANTHA JO</t>
-  </si>
-  <si>
-    <t>AMBER</t>
-  </si>
-  <si>
-    <t>ADAM</t>
-  </si>
-  <si>
-    <t>JAMIE</t>
-  </si>
-  <si>
-    <t>TAMI</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>EDITH</t>
-  </si>
-  <si>
-    <t>MEGHAN</t>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>ELLIE</t>
+  </si>
+  <si>
+    <t>MARY</t>
+  </si>
+  <si>
+    <t>ARGENIS</t>
+  </si>
+  <si>
+    <t>DEMETRIUS</t>
+  </si>
+  <si>
+    <t>DEEPA</t>
+  </si>
+  <si>
+    <t>REBECCA</t>
+  </si>
+  <si>
+    <t>FRANCES</t>
+  </si>
+  <si>
+    <t>KRISTEN</t>
+  </si>
+  <si>
+    <t>STEPHANIE</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>SHERRI</t>
+  </si>
+  <si>
+    <t>BARBARA</t>
+  </si>
+  <si>
+    <t>FAIZ</t>
+  </si>
+  <si>
+    <t>ROBERT</t>
+  </si>
+  <si>
+    <t>BLAIRE</t>
+  </si>
+  <si>
+    <t>JOANNA</t>
+  </si>
+  <si>
+    <t>ERIC</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>HAZEL</t>
+  </si>
+  <si>
+    <t>EMILY</t>
+  </si>
+  <si>
+    <t>JUANITA</t>
+  </si>
+  <si>
+    <t>BRITTANY</t>
+  </si>
+  <si>
+    <t>MELISSA</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>PRAGYA</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>MADELINE</t>
+  </si>
+  <si>
+    <t>MATTHEW</t>
+  </si>
+  <si>
+    <t>KATIE</t>
+  </si>
+  <si>
+    <t>CHALON</t>
+  </si>
+  <si>
+    <t>ALICIA</t>
+  </si>
+  <si>
+    <t>KARLYNN</t>
+  </si>
+  <si>
+    <t>BRITTNEY</t>
+  </si>
+  <si>
+    <t>KAMILAH</t>
+  </si>
+  <si>
+    <t>CORINA</t>
+  </si>
+  <si>
+    <t>LA TOSHA</t>
+  </si>
+  <si>
+    <t>BRIANNA</t>
+  </si>
+  <si>
+    <t>TAYLOR</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>ROSALIND</t>
+  </si>
+  <si>
+    <t>LEVI</t>
+  </si>
+  <si>
+    <t>SOPHIA</t>
+  </si>
+  <si>
+    <t>LAUREN</t>
+  </si>
+  <si>
+    <t>KILEY</t>
+  </si>
+  <si>
+    <t>CLAIRE</t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>ANDREW</t>
+  </si>
+  <si>
+    <t>ROSANNA</t>
+  </si>
+  <si>
+    <t>CORINNE</t>
+  </si>
+  <si>
+    <t>BRIAN</t>
+  </si>
+  <si>
+    <t>KOURTNEY</t>
+  </si>
+  <si>
+    <t>DENNIS</t>
+  </si>
+  <si>
+    <t>FELICIA</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>FAITH</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>KEMARA</t>
+  </si>
+  <si>
+    <t>DAWN</t>
+  </si>
+  <si>
+    <t>LIUYANG</t>
+  </si>
+  <si>
+    <t>LYDIA</t>
+  </si>
+  <si>
+    <t>JANE</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>CATHERINE</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>AMY</t>
+  </si>
+  <si>
+    <t>YOULONDA</t>
+  </si>
+  <si>
+    <t>NATHAN</t>
+  </si>
+  <si>
+    <t>SHANEE</t>
+  </si>
+  <si>
+    <t>JEREMIE</t>
+  </si>
+  <si>
+    <t>KATHERINE</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>MARIE</t>
+  </si>
+  <si>
+    <t>KYLA</t>
   </si>
   <si>
     <t>JENNIFER</t>
   </si>
   <si>
-    <t>LORI</t>
-  </si>
-  <si>
-    <t>MEGAN</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>ALLISON</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>BRANDIE</t>
-  </si>
-  <si>
-    <t>ANMOL</t>
-  </si>
-  <si>
-    <t>ASHLEY</t>
-  </si>
-  <si>
-    <t>JORDAN</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>ZACHARY</t>
-  </si>
-  <si>
-    <t>FEMY</t>
-  </si>
-  <si>
-    <t>GREG</t>
-  </si>
-  <si>
-    <t>SHIRLEY</t>
-  </si>
-  <si>
-    <t>ASMA</t>
-  </si>
-  <si>
-    <t>MARY</t>
-  </si>
-  <si>
-    <t>LAUREN</t>
-  </si>
-  <si>
-    <t>CARRIE</t>
-  </si>
-  <si>
-    <t>PAULETTE</t>
-  </si>
-  <si>
-    <t>NICHOLE</t>
-  </si>
-  <si>
-    <t>DANA</t>
-  </si>
-  <si>
-    <t>KATIE</t>
-  </si>
-  <si>
-    <t>LEWIS</t>
-  </si>
-  <si>
-    <t>CELESTE</t>
-  </si>
-  <si>
-    <t>BRIANNA</t>
-  </si>
-  <si>
-    <t>SHANNAN</t>
-  </si>
-  <si>
-    <t>BRANDI</t>
-  </si>
-  <si>
-    <t>DEBORAH</t>
-  </si>
-  <si>
-    <t>GLORIA</t>
-  </si>
-  <si>
-    <t>SHARON</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>JULLES</t>
-  </si>
-  <si>
-    <t>TAIWAN</t>
-  </si>
-  <si>
-    <t>LINDA</t>
-  </si>
-  <si>
-    <t>GRECIA</t>
-  </si>
-  <si>
-    <t>SAMANTHA</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>CIERRA</t>
-  </si>
-  <si>
-    <t>EVA</t>
-  </si>
-  <si>
-    <t>SKYLER</t>
-  </si>
-  <si>
-    <t>COREY</t>
-  </si>
-  <si>
-    <t>BRITTANY</t>
-  </si>
-  <si>
-    <t>BRENDA</t>
-  </si>
-  <si>
-    <t>WHITNEY</t>
-  </si>
-  <si>
-    <t>MADELINE</t>
-  </si>
-  <si>
-    <t>SANDI</t>
-  </si>
-  <si>
-    <t>SARI</t>
-  </si>
-  <si>
-    <t>PAUL</t>
-  </si>
-  <si>
-    <t>ANDREW</t>
-  </si>
-  <si>
-    <t>LA MARIA</t>
-  </si>
-  <si>
-    <t>JEANNINE</t>
-  </si>
-  <si>
-    <t>LOGAN</t>
-  </si>
-  <si>
-    <t>REBECCA</t>
-  </si>
-  <si>
-    <t>CASSANDRA</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>SADLER</t>
-  </si>
-  <si>
-    <t>MITCHELL</t>
-  </si>
-  <si>
-    <t>WILSHIRE</t>
-  </si>
-  <si>
-    <t>BABUREK</t>
-  </si>
-  <si>
-    <t>GOVE</t>
+    <t>LISA</t>
+  </si>
+  <si>
+    <t>JEREMIAH</t>
+  </si>
+  <si>
+    <t>ALEXANDRA</t>
+  </si>
+  <si>
+    <t>BRENT</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>FITCH</t>
+  </si>
+  <si>
+    <t>ETTMAN</t>
+  </si>
+  <si>
+    <t>WYMAN</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>SMITH</t>
+  </si>
+  <si>
+    <t>SAMAROO</t>
+  </si>
+  <si>
+    <t>MOORE</t>
+  </si>
+  <si>
+    <t>CRESPO BONILLA</t>
+  </si>
+  <si>
+    <t>COOK</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>KASTIN</t>
+  </si>
+  <si>
+    <t>CREEL</t>
+  </si>
+  <si>
+    <t>NUNLEY</t>
+  </si>
+  <si>
+    <t>FASEEHUDDIN</t>
+  </si>
+  <si>
+    <t>LLOYD</t>
+  </si>
+  <si>
+    <t>CRUTCHLEY</t>
+  </si>
+  <si>
+    <t>SENDEJO</t>
+  </si>
+  <si>
+    <t>ADAMS</t>
+  </si>
+  <si>
+    <t>CORREA</t>
+  </si>
+  <si>
+    <t>FRASIER</t>
+  </si>
+  <si>
+    <t>MASI</t>
+  </si>
+  <si>
+    <t>BENTLEY</t>
+  </si>
+  <si>
+    <t>SCHWARTEN</t>
+  </si>
+  <si>
+    <t>HOUSEMAN</t>
+  </si>
+  <si>
+    <t>REUTER</t>
+  </si>
+  <si>
+    <t>SITOULA</t>
+  </si>
+  <si>
+    <t>MADDALO</t>
+  </si>
+  <si>
+    <t>NICHOLS</t>
+  </si>
+  <si>
+    <t>NAKI</t>
+  </si>
+  <si>
+    <t>WRIGHT</t>
+  </si>
+  <si>
+    <t>MASOLINI</t>
+  </si>
+  <si>
+    <t>AUSTIN</t>
+  </si>
+  <si>
+    <t>MURPHY</t>
+  </si>
+  <si>
+    <t>CARNEVALE</t>
+  </si>
+  <si>
+    <t>NESS</t>
+  </si>
+  <si>
+    <t>SHEGOG</t>
+  </si>
+  <si>
+    <t>BANKS-WORD</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>LYMON</t>
+  </si>
+  <si>
+    <t>TICHACEK</t>
+  </si>
+  <si>
+    <t>BROOKS</t>
+  </si>
+  <si>
+    <t>HERBORD</t>
+  </si>
+  <si>
+    <t>COLLADO</t>
+  </si>
+  <si>
+    <t>MCCANN</t>
+  </si>
+  <si>
+    <t>TURNER</t>
+  </si>
+  <si>
+    <t>JOSEFSSON</t>
+  </si>
+  <si>
+    <t>PEACO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>HILTON</t>
+  </si>
+  <si>
+    <t>HACHE</t>
+  </si>
+  <si>
+    <t>ALFARO</t>
+  </si>
+  <si>
+    <t>DUBE</t>
+  </si>
+  <si>
+    <t>HANSON</t>
+  </si>
+  <si>
+    <t>MIKUTEL</t>
+  </si>
+  <si>
+    <t>DEVELLIS</t>
+  </si>
+  <si>
+    <t>BOWMAN</t>
+  </si>
+  <si>
+    <t>GENTRY</t>
+  </si>
+  <si>
+    <t>BECK</t>
+  </si>
+  <si>
+    <t>TRIEST</t>
+  </si>
+  <si>
+    <t>GIBSON</t>
+  </si>
+  <si>
+    <t>ULLMAN</t>
+  </si>
+  <si>
+    <t>MARSH</t>
+  </si>
+  <si>
+    <t>HYPPOLITE</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>WORLEY</t>
+  </si>
+  <si>
+    <t>LESQUIVES</t>
   </si>
   <si>
     <t>ALLEN</t>
   </si>
   <si>
-    <t>BAK</t>
-  </si>
-  <si>
-    <t>ARIJAJE</t>
-  </si>
-  <si>
-    <t>MATHEWS</t>
-  </si>
-  <si>
-    <t>MCPEEK</t>
-  </si>
-  <si>
-    <t>LEE</t>
-  </si>
-  <si>
-    <t>HENCINSKI</t>
-  </si>
-  <si>
-    <t>ARMSTRONG</t>
-  </si>
-  <si>
-    <t>TATE</t>
-  </si>
-  <si>
-    <t>PUGSLEY</t>
-  </si>
-  <si>
-    <t>FRIDLEY</t>
-  </si>
-  <si>
-    <t>ARORA</t>
-  </si>
-  <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>KWAMANAKWEENDA</t>
-  </si>
-  <si>
-    <t>UNGEMACH</t>
-  </si>
-  <si>
-    <t>HOOPER</t>
-  </si>
-  <si>
-    <t>LUCENTE</t>
-  </si>
-  <si>
-    <t>BONTO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>KULIK</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>CHASE</t>
-  </si>
-  <si>
-    <t>KHALID</t>
-  </si>
-  <si>
-    <t>HAUSWIRTH</t>
-  </si>
-  <si>
-    <t>MOSS</t>
-  </si>
-  <si>
-    <t>BAKER</t>
-  </si>
-  <si>
-    <t>GORSUCH</t>
-  </si>
-  <si>
-    <t>ZIADY</t>
-  </si>
-  <si>
-    <t>PATRICK</t>
-  </si>
-  <si>
-    <t>STONE</t>
-  </si>
-  <si>
-    <t>FABIUS</t>
-  </si>
-  <si>
-    <t>SLUSHER</t>
-  </si>
-  <si>
-    <t>MCVEIGH</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>HERMANN</t>
-  </si>
-  <si>
-    <t>BRYANT</t>
-  </si>
-  <si>
-    <t>KASS</t>
-  </si>
-  <si>
-    <t>QUESTEL</t>
-  </si>
-  <si>
-    <t>VIGUE</t>
-  </si>
-  <si>
-    <t>SHAYWITZ</t>
-  </si>
-  <si>
-    <t>GILL</t>
-  </si>
-  <si>
-    <t>BERKY</t>
-  </si>
-  <si>
-    <t>PILES</t>
-  </si>
-  <si>
-    <t>SONG</t>
-  </si>
-  <si>
-    <t>DELGADO</t>
-  </si>
-  <si>
-    <t>SENDAWY</t>
-  </si>
-  <si>
-    <t>WEAVER</t>
-  </si>
-  <si>
-    <t>BALLARD</t>
-  </si>
-  <si>
-    <t>PESTERFIELD</t>
-  </si>
-  <si>
-    <t>DICKINSON</t>
-  </si>
-  <si>
-    <t>ROGERS</t>
-  </si>
-  <si>
-    <t>POTTER</t>
-  </si>
-  <si>
-    <t>GEORGES</t>
-  </si>
-  <si>
-    <t>CARNEY</t>
-  </si>
-  <si>
-    <t>NELSON</t>
-  </si>
-  <si>
-    <t>EADS</t>
-  </si>
-  <si>
-    <t>HAWK</t>
-  </si>
-  <si>
-    <t>WILLIAMS</t>
-  </si>
-  <si>
-    <t>GILINSKY</t>
-  </si>
-  <si>
-    <t>SOUTHWELL</t>
-  </si>
-  <si>
-    <t>HUGUELET</t>
-  </si>
-  <si>
-    <t>FOLKS</t>
-  </si>
-  <si>
-    <t>MEYER</t>
-  </si>
-  <si>
-    <t>POCKL</t>
-  </si>
-  <si>
-    <t>HARNISH</t>
-  </si>
-  <si>
-    <t>SULLIVAN</t>
-  </si>
-  <si>
-    <t>DOWNEY</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
+    <t>WITTIG</t>
+  </si>
+  <si>
+    <t>MCCARTY</t>
+  </si>
+  <si>
+    <t>KIM</t>
+  </si>
+  <si>
+    <t>QUIGLEY</t>
+  </si>
+  <si>
+    <t>FEDDER</t>
+  </si>
+  <si>
+    <t>SAUCILLO</t>
+  </si>
+  <si>
+    <t>BECHARD</t>
+  </si>
+  <si>
+    <t>BROWN</t>
+  </si>
+  <si>
+    <t>SCHAFFHAUSER</t>
+  </si>
+  <si>
+    <t>MASON</t>
+  </si>
+  <si>
+    <t>ROSENBERGER</t>
+  </si>
+  <si>
+    <t>HOLMES</t>
+  </si>
+  <si>
+    <t>BEAUMONTE</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GUERRIER</t>
+  </si>
+  <si>
+    <t>DALTON</t>
+  </si>
+  <si>
+    <t>ESTES</t>
+  </si>
+  <si>
+    <t>ACKLAND</t>
+  </si>
+  <si>
+    <t>MILLER</t>
+  </si>
+  <si>
+    <t>FOLKINS</t>
+  </si>
+  <si>
+    <t>HORYN</t>
+  </si>
+  <si>
+    <t>DELLHEIM</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>STEWART</t>
   </si>
   <si>
     <t>352</t>
@@ -454,16 +556,13 @@
     <t>405</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>337</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>455</t>
+    <t>401</t>
   </si>
   <si>
     <t>399</t>
@@ -824,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,1126 +945,1975 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1447009352</v>
+        <v>1013105469</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1881277341</v>
+        <v>1013105469</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1871969543</v>
+        <v>1013105469</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1356689707</v>
+        <v>1023668134</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1497465041</v>
+        <v>1023668134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1831466382</v>
+        <v>1043882244</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1861903080</v>
+        <v>1114639911</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1245938752</v>
+        <v>1114643400</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1003698283</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>145</v>
+        <v>1124997390</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1912893900</v>
+        <v>1144678178</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1215668280</v>
+        <v>1154549269</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1144314691</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>144</v>
+        <v>1164097721</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1447684477</v>
+        <v>1174870620</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1841805371</v>
+        <v>1235017286</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1568039139</v>
+        <v>1255091823</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1871019521</v>
+        <v>1316839657</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1124738596</v>
+        <v>1326168774</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>1487283339</v>
+        <v>1346910312</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1548975840</v>
+        <v>1346910312</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1124919733</v>
+        <v>1346910312</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1629729751</v>
+        <v>1346910312</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1427529320</v>
+        <v>1407147259</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>1831614015</v>
+        <v>1407410103</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>1710482310</v>
+        <v>1407678394</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>1932097326</v>
+        <v>1417572256</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>1508598723</v>
+        <v>1417572256</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1972098408</v>
+        <v>1427719699</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>1447684477</v>
+        <v>1427948157</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>1518789148</v>
+        <v>1437493285</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>1386480077</v>
+        <v>1437881265</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1700370921</v>
+        <v>1457776791</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>1356231526</v>
+        <v>1457804833</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1780360743</v>
+        <v>1467128942</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>1982000766</v>
+        <v>1467128942</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>1023632635</v>
+        <v>1467327726</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1366628018</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" t="s">
-        <v>144</v>
+        <v>1538029483</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1962023507</v>
-      </c>
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" t="s">
-        <v>146</v>
+        <v>1538029483</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1962023507</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>146</v>
+        <v>1548139728</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>1962640987</v>
-      </c>
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" t="s">
-        <v>144</v>
+        <v>1548139728</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1780345058</v>
+        <v>1548139728</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>1073324760</v>
+        <v>1558233924</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>1467092312</v>
+        <v>1568970879</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1407741648</v>
+        <v>1578953428</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>1982472254</v>
+        <v>1578953428</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>1700390895</v>
+        <v>1578953428</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>1073263224</v>
+        <v>1598377749</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>1699664185</v>
+        <v>1598377749</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>1811569767</v>
+        <v>1598377749</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>1922522903</v>
-      </c>
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" t="s">
-        <v>144</v>
+        <v>1619843117</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>1043323611</v>
+        <v>1629767934</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>1093506453</v>
+        <v>1639741820</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>1164207692</v>
+        <v>1639741820</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>1770754202</v>
+        <v>1679337349</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>1073167706</v>
+        <v>1699906685</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>1205326626</v>
+        <v>1699906685</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>1417587296</v>
+        <v>1710406673</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>1104522986</v>
+        <v>1710792700</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>1154334738</v>
+        <v>1710792700</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>1497589352</v>
+        <v>1710853130</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>1518842012</v>
+        <v>1720405129</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>1134841455</v>
+        <v>1730494956</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>1447134739</v>
+        <v>1831627819</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>1316820772</v>
+        <v>1841836244</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>1407370570</v>
+        <v>1881561454</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>1679467021</v>
+        <v>1881561454</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>1538842257</v>
+        <v>1902563919</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>1992182414</v>
+        <v>1902563919</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>1972485977</v>
+        <v>1902563919</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
         <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>1801771761</v>
+        <v>1912546797</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>1811873300</v>
+        <v>1922498054</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>1528835501</v>
+        <v>1932698123</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1881367738</v>
+        <v>1932698123</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>1316788995</v>
+        <v>1932698123</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>1811596133</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" t="s">
-        <v>144</v>
+        <v>1013887421</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>1255221206</v>
-      </c>
-      <c r="B76" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" t="s">
-        <v>133</v>
-      </c>
-      <c r="D76" t="s">
-        <v>144</v>
+        <v>1013887421</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>1457681348</v>
-      </c>
-      <c r="B77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" t="s">
-        <v>134</v>
-      </c>
-      <c r="D77" t="s">
-        <v>144</v>
+        <v>1013887421</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>1699365361</v>
+        <v>1023704632</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>1639793680</v>
+        <v>1023704632</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>1962091603</v>
+        <v>1023704632</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D80" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>1518571850</v>
-      </c>
-      <c r="B81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" t="s">
-        <v>138</v>
-      </c>
-      <c r="D81" t="s">
-        <v>144</v>
+        <v>1093203390</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>1366696445</v>
+        <v>1093203390</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>1407530934</v>
+        <v>1104795814</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>1457778862</v>
-      </c>
-      <c r="B84" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" t="s">
-        <v>140</v>
-      </c>
-      <c r="D84" t="s">
-        <v>144</v>
+        <v>1134080781</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1417640731</v>
+        <v>1134080781</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1447134127</v>
+        <v>1134099211</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D86" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1871475277</v>
+        <v>1154121481</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>1255763538</v>
+        <v>1154121481</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>1508593898</v>
+        <v>1184061657</v>
       </c>
       <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>1184061657</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>1205493426</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>1225682024</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>1225841380</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>1255106043</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>1255219655</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>1255709176</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>1316817018</v>
+      </c>
+      <c r="B97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1316817018</v>
+      </c>
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>1326796731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>1336723550</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>1336723550</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>1366235053</v>
+      </c>
+      <c r="B102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>1376141259</v>
+      </c>
+      <c r="B103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>1386404630</v>
+      </c>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>1396613212</v>
+      </c>
+      <c r="B105" t="s">
+        <v>58</v>
+      </c>
+      <c r="C105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>1396613212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>1396613212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>1407370430</v>
+      </c>
+      <c r="B108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>1407370430</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>1427507292</v>
+      </c>
+      <c r="B110" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" t="s">
+        <v>149</v>
+      </c>
+      <c r="D110" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>1437487014</v>
+      </c>
+      <c r="B111" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>1447592621</v>
+      </c>
+      <c r="B112" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>1447905971</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>1447905971</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>1457453425</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>1467011981</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" t="s">
+        <v>152</v>
+      </c>
+      <c r="D116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>1487106027</v>
+      </c>
+      <c r="B117" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" t="s">
+        <v>153</v>
+      </c>
+      <c r="D117" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>1497379614</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>1497379614</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>1518353762</v>
+      </c>
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>1528930724</v>
+      </c>
+      <c r="B121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" t="s">
+        <v>155</v>
+      </c>
+      <c r="D121" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>1528930724</v>
+      </c>
+      <c r="B122" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" t="s">
+        <v>155</v>
+      </c>
+      <c r="D122" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>1568021848</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>1568333060</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="s">
+        <v>156</v>
+      </c>
+      <c r="D124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>1588114102</v>
+      </c>
+      <c r="B125" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" t="s">
+        <v>157</v>
+      </c>
+      <c r="D125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>1598800856</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>1619783727</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>158</v>
+      </c>
+      <c r="D127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>1639039050</v>
+      </c>
+      <c r="B128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" t="s">
+        <v>159</v>
+      </c>
+      <c r="D128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>1639039050</v>
+      </c>
+      <c r="B129" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" t="s">
+        <v>159</v>
+      </c>
+      <c r="D129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>1639041452</v>
+      </c>
+      <c r="B130" t="s">
         <v>70</v>
       </c>
-      <c r="C89" t="s">
-        <v>143</v>
-      </c>
-      <c r="D89" t="s">
-        <v>150</v>
+      <c r="C130" t="s">
+        <v>160</v>
+      </c>
+      <c r="D130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>1649220732</v>
+      </c>
+      <c r="B131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" t="s">
+        <v>161</v>
+      </c>
+      <c r="D131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>1649220732</v>
+      </c>
+      <c r="B132" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>1689095663</v>
+      </c>
+      <c r="B133" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>1689359200</v>
+      </c>
+      <c r="B134" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" t="s">
+        <v>163</v>
+      </c>
+      <c r="D134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>1700501400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>1700501400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>1700501400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>1700567559</v>
+      </c>
+      <c r="B138" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" t="s">
+        <v>164</v>
+      </c>
+      <c r="D138" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>1750947537</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>1750947537</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>1750947537</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>1750947537</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>1750947537</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>1750947537</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>1770457376</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" t="s">
+        <v>165</v>
+      </c>
+      <c r="D145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>1780552281</v>
+      </c>
+      <c r="B146" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>1780552281</v>
+      </c>
+      <c r="B147" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>1801588181</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" t="s">
+        <v>166</v>
+      </c>
+      <c r="D148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>1801661079</v>
+      </c>
+      <c r="B149" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" t="s">
+        <v>167</v>
+      </c>
+      <c r="D149" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>1811646201</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="s">
+        <v>168</v>
+      </c>
+      <c r="D150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>1841022852</v>
+      </c>
+      <c r="B151" t="s">
+        <v>80</v>
+      </c>
+      <c r="C151" t="s">
+        <v>169</v>
+      </c>
+      <c r="D151" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>1841909272</v>
+      </c>
+      <c r="B152" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" t="s">
+        <v>170</v>
+      </c>
+      <c r="D152" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>1851036644</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>1861066318</v>
+      </c>
+      <c r="B154" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" t="s">
+        <v>171</v>
+      </c>
+      <c r="D154" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>1871365890</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>1871365890</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>1891592523</v>
+      </c>
+      <c r="B157" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" t="s">
+        <v>172</v>
+      </c>
+      <c r="D157" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>1912182528</v>
+      </c>
+      <c r="B158" t="s">
+        <v>77</v>
+      </c>
+      <c r="C158" t="s">
+        <v>173</v>
+      </c>
+      <c r="D158" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>1912182528</v>
+      </c>
+      <c r="B159" t="s">
+        <v>77</v>
+      </c>
+      <c r="C159" t="s">
+        <v>173</v>
+      </c>
+      <c r="D159" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>1922716059</v>
+      </c>
+      <c r="B160" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" t="s">
+        <v>174</v>
+      </c>
+      <c r="D160" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>1932069168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>1962196311</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>1972377521</v>
+      </c>
+      <c r="B163" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>1982158432</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>1982265195</v>
+      </c>
+      <c r="B165" t="s">
+        <v>86</v>
+      </c>
+      <c r="C165" t="s">
+        <v>177</v>
+      </c>
+      <c r="D165" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>1982265195</v>
+      </c>
+      <c r="B166" t="s">
+        <v>86</v>
+      </c>
+      <c r="C166" t="s">
+        <v>177</v>
+      </c>
+      <c r="D166" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>1982482436</v>
       </c>
     </row>
   </sheetData>
